--- a/论文参考/硕士论文格式检查表2018new 20190322.xlsx
+++ b/论文参考/硕士论文格式检查表2018new 20190322.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="16000"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="分类" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="336">
   <si>
     <t>类别</t>
   </si>
@@ -5274,10 +5274,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -5399,8 +5399,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5422,21 +5430,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -5451,6 +5481,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -5459,24 +5496,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5484,36 +5522,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5528,16 +5536,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5570,7 +5570,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5582,13 +5678,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5600,61 +5732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5666,91 +5744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5890,11 +5890,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5916,8 +5970,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5931,209 +5987,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6198,11 +6198,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -6282,54 +6282,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -6601,25 +6601,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8303571428571" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.33035714285714" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.33333333333333" style="23" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="23" customWidth="1"/>
     <col min="3" max="3" width="126.5" style="24" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="25" customWidth="1"/>
-    <col min="5" max="5" width="10.6696428571429" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="10.8303571428571" style="24"/>
+    <col min="5" max="5" width="10.6666666666667" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" ht="21" spans="1:5">
+    <row r="1" s="22" customFormat="1" ht="18.75" spans="1:5">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:5">
+    <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
@@ -6647,7 +6647,7 @@
       <c r="D2" s="32"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" ht="18" spans="1:5">
+    <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="29"/>
       <c r="B3" s="30">
         <v>2</v>
@@ -6658,7 +6658,7 @@
       <c r="D3" s="32"/>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" ht="18" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="29"/>
       <c r="B4" s="30">
         <v>3</v>
@@ -6669,7 +6669,7 @@
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" ht="36" spans="1:5">
+    <row r="5" ht="28.5" spans="1:5">
       <c r="A5" s="29"/>
       <c r="B5" s="30">
         <v>4</v>
@@ -6680,7 +6680,7 @@
       <c r="D5" s="32"/>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" ht="18" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="29"/>
       <c r="B6" s="30">
         <v>5</v>
@@ -6691,7 +6691,7 @@
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" ht="18" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="29" t="s">
         <v>10</v>
       </c>
@@ -6704,7 +6704,7 @@
       <c r="D7" s="32"/>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" ht="18" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="29"/>
       <c r="B8" s="30">
         <v>7</v>
@@ -6715,7 +6715,7 @@
       <c r="D8" s="32"/>
       <c r="E8" s="33"/>
     </row>
-    <row r="9" ht="36" spans="1:5">
+    <row r="9" ht="28.5" spans="1:5">
       <c r="A9" s="29"/>
       <c r="B9" s="30">
         <v>8</v>
@@ -6726,7 +6726,7 @@
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" ht="36" spans="1:5">
+    <row r="10" ht="28.5" spans="1:5">
       <c r="A10" s="29"/>
       <c r="B10" s="30">
         <v>9</v>
@@ -6737,7 +6737,7 @@
       <c r="D10" s="32"/>
       <c r="E10" s="33"/>
     </row>
-    <row r="11" ht="18" spans="1:5">
+    <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="29"/>
       <c r="B11" s="30">
         <v>10</v>
@@ -6748,7 +6748,7 @@
       <c r="D11" s="32"/>
       <c r="E11" s="33"/>
     </row>
-    <row r="12" ht="18" spans="1:5">
+    <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="29"/>
       <c r="B12" s="30">
         <v>11</v>
@@ -6759,7 +6759,7 @@
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" ht="36" spans="1:5">
+    <row r="13" ht="42.75" spans="1:5">
       <c r="A13" s="29"/>
       <c r="B13" s="30">
         <v>12</v>
@@ -6770,7 +6770,7 @@
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
     </row>
-    <row r="14" ht="18" spans="1:5">
+    <row r="14" ht="14.25" spans="1:5">
       <c r="A14" s="29"/>
       <c r="B14" s="30">
         <v>13</v>
@@ -6781,7 +6781,7 @@
       <c r="D14" s="32"/>
       <c r="E14" s="33"/>
     </row>
-    <row r="15" ht="18" spans="1:5">
+    <row r="15" ht="14.25" spans="1:5">
       <c r="A15" s="29" t="s">
         <v>19</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" ht="18" spans="1:5">
+    <row r="16" ht="14.25" spans="1:5">
       <c r="A16" s="29"/>
       <c r="B16" s="30">
         <v>15</v>
@@ -6805,7 +6805,7 @@
       <c r="D16" s="32"/>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" ht="18" spans="1:5">
+    <row r="17" ht="14.25" spans="1:5">
       <c r="A17" s="29"/>
       <c r="B17" s="30">
         <v>16</v>
@@ -6816,7 +6816,7 @@
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
     </row>
-    <row r="18" ht="18" spans="1:5">
+    <row r="18" ht="14.25" spans="1:5">
       <c r="A18" s="29"/>
       <c r="B18" s="30">
         <v>17</v>
@@ -6827,7 +6827,7 @@
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
     </row>
-    <row r="19" ht="18" spans="1:5">
+    <row r="19" ht="14.25" spans="1:5">
       <c r="A19" s="29"/>
       <c r="B19" s="30">
         <v>18</v>
@@ -6838,7 +6838,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" ht="18" spans="1:5">
+    <row r="20" ht="14.25" spans="1:5">
       <c r="A20" s="29"/>
       <c r="B20" s="30">
         <v>19</v>
@@ -6849,7 +6849,7 @@
       <c r="D20" s="32"/>
       <c r="E20" s="33"/>
     </row>
-    <row r="21" ht="18" spans="1:5">
+    <row r="21" ht="14.25" spans="1:5">
       <c r="A21" s="29"/>
       <c r="B21" s="30">
         <v>20</v>
@@ -6860,7 +6860,7 @@
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" ht="18" spans="1:5">
+    <row r="22" ht="14.25" spans="1:5">
       <c r="A22" s="29"/>
       <c r="B22" s="30">
         <v>21</v>
@@ -6871,7 +6871,7 @@
       <c r="D22" s="32"/>
       <c r="E22" s="33"/>
     </row>
-    <row r="23" ht="18" spans="1:5">
+    <row r="23" ht="14.25" spans="1:5">
       <c r="A23" s="29"/>
       <c r="B23" s="30">
         <v>22</v>
@@ -6882,7 +6882,7 @@
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
     </row>
-    <row r="24" ht="18" spans="1:5">
+    <row r="24" ht="14.25" spans="1:5">
       <c r="A24" s="29"/>
       <c r="B24" s="30">
         <v>23</v>
@@ -6893,7 +6893,7 @@
       <c r="D24" s="32"/>
       <c r="E24" s="33"/>
     </row>
-    <row r="25" ht="36" spans="1:5">
+    <row r="25" ht="14.25" spans="1:5">
       <c r="A25" s="29" t="s">
         <v>30</v>
       </c>
@@ -6906,7 +6906,7 @@
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
     </row>
-    <row r="26" ht="18" spans="1:5">
+    <row r="26" ht="14.25" spans="1:5">
       <c r="A26" s="29"/>
       <c r="B26" s="30">
         <v>25</v>
@@ -6917,7 +6917,7 @@
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
     </row>
-    <row r="27" ht="18" spans="1:5">
+    <row r="27" spans="1:5">
       <c r="A27" s="29"/>
       <c r="B27" s="30">
         <v>26</v>
@@ -6928,18 +6928,18 @@
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
     </row>
-    <row r="28" ht="18" spans="1:5">
+    <row r="28" spans="1:5">
       <c r="A28" s="29"/>
       <c r="B28" s="30">
         <v>27</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="31" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
     </row>
-    <row r="29" ht="18" spans="1:5">
+    <row r="29" spans="1:5">
       <c r="A29" s="29"/>
       <c r="B29" s="30">
         <v>28</v>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="E29" s="33"/>
     </row>
-    <row r="30" ht="18" spans="1:5">
+    <row r="30" spans="1:5">
       <c r="A30" s="29"/>
       <c r="B30" s="30">
         <v>29</v>
@@ -6963,7 +6963,7 @@
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
     </row>
-    <row r="31" ht="18" spans="1:5">
+    <row r="31" ht="14.25" spans="1:5">
       <c r="A31" s="29"/>
       <c r="B31" s="30">
         <v>30</v>
@@ -6974,7 +6974,7 @@
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
     </row>
-    <row r="32" ht="18" spans="1:5">
+    <row r="32" ht="14.25" spans="1:5">
       <c r="A32" s="29"/>
       <c r="B32" s="30">
         <v>31</v>
@@ -6985,7 +6985,7 @@
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
     </row>
-    <row r="33" ht="18" spans="1:5">
+    <row r="33" ht="14.25" spans="1:5">
       <c r="A33" s="29"/>
       <c r="B33" s="30">
         <v>32</v>
@@ -6996,7 +6996,7 @@
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
     </row>
-    <row r="34" ht="18" spans="1:5">
+    <row r="34" spans="1:5">
       <c r="A34" s="29"/>
       <c r="B34" s="30">
         <v>33</v>
@@ -7007,7 +7007,7 @@
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
     </row>
-    <row r="35" ht="18" spans="1:5">
+    <row r="35" ht="14.25" spans="1:5">
       <c r="A35" s="29"/>
       <c r="B35" s="30">
         <v>34</v>
@@ -7018,7 +7018,7 @@
       <c r="D35" s="32"/>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" ht="18" spans="1:5">
+    <row r="36" spans="1:5">
       <c r="A36" s="29"/>
       <c r="B36" s="30">
         <v>35</v>
@@ -7029,7 +7029,7 @@
       <c r="D36" s="32"/>
       <c r="E36" s="33"/>
     </row>
-    <row r="37" ht="18" spans="1:5">
+    <row r="37" ht="14.25" spans="1:5">
       <c r="A37" s="29"/>
       <c r="B37" s="30">
         <v>36</v>
@@ -7040,7 +7040,7 @@
       <c r="D37" s="32"/>
       <c r="E37" s="33"/>
     </row>
-    <row r="38" ht="18" spans="1:5">
+    <row r="38" ht="14.25" spans="1:5">
       <c r="A38" s="29"/>
       <c r="B38" s="30">
         <v>37</v>
@@ -7051,7 +7051,7 @@
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
     </row>
-    <row r="39" ht="18" spans="1:5">
+    <row r="39" ht="14.25" spans="1:5">
       <c r="A39" s="29"/>
       <c r="B39" s="30">
         <v>38</v>
@@ -7062,7 +7062,7 @@
       <c r="D39" s="32"/>
       <c r="E39" s="33"/>
     </row>
-    <row r="40" ht="18" spans="1:5">
+    <row r="40" ht="14.25" spans="1:5">
       <c r="A40" s="29"/>
       <c r="B40" s="30">
         <v>39</v>
@@ -7073,7 +7073,7 @@
       <c r="D40" s="32"/>
       <c r="E40" s="33"/>
     </row>
-    <row r="41" ht="18" spans="1:5">
+    <row r="41" ht="14.25" spans="1:5">
       <c r="A41" s="29"/>
       <c r="B41" s="30">
         <v>40</v>
@@ -7084,7 +7084,7 @@
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
     </row>
-    <row r="42" ht="18" spans="1:5">
+    <row r="42" ht="14.25" spans="1:5">
       <c r="A42" s="29" t="s">
         <v>49</v>
       </c>
@@ -7097,7 +7097,7 @@
       <c r="D42" s="32"/>
       <c r="E42" s="33"/>
     </row>
-    <row r="43" ht="18" spans="1:5">
+    <row r="43" ht="14.25" spans="1:5">
       <c r="A43" s="29"/>
       <c r="B43" s="30">
         <v>42</v>
@@ -7108,7 +7108,7 @@
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
     </row>
-    <row r="44" ht="18" spans="1:5">
+    <row r="44" ht="14.25" spans="1:5">
       <c r="A44" s="29" t="s">
         <v>52</v>
       </c>
@@ -7121,7 +7121,7 @@
       <c r="D44" s="32"/>
       <c r="E44" s="33"/>
     </row>
-    <row r="45" ht="18" spans="1:5">
+    <row r="45" ht="14.25" spans="1:5">
       <c r="A45" s="29"/>
       <c r="B45" s="30">
         <v>44</v>
@@ -7132,7 +7132,7 @@
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
     </row>
-    <row r="46" ht="17.6" spans="1:5">
+    <row r="46" ht="14.25" spans="1:5">
       <c r="A46" s="29"/>
       <c r="B46" s="30">
         <v>45</v>
@@ -7143,7 +7143,7 @@
       <c r="D46" s="32"/>
       <c r="E46" s="33"/>
     </row>
-    <row r="47" ht="17.6" spans="1:5">
+    <row r="47" ht="14.25" spans="1:5">
       <c r="A47" s="29" t="s">
         <v>56</v>
       </c>
@@ -7156,7 +7156,7 @@
       <c r="D47" s="32"/>
       <c r="E47" s="33"/>
     </row>
-    <row r="48" ht="17.6" spans="1:5">
+    <row r="48" ht="14.25" spans="1:5">
       <c r="A48" s="29"/>
       <c r="B48" s="30">
         <v>47</v>
@@ -7167,7 +7167,7 @@
       <c r="D48" s="32"/>
       <c r="E48" s="33"/>
     </row>
-    <row r="49" ht="18" spans="1:5">
+    <row r="49" ht="14.25" spans="1:5">
       <c r="A49" s="29"/>
       <c r="B49" s="30">
         <v>48</v>
@@ -7178,7 +7178,7 @@
       <c r="D49" s="32"/>
       <c r="E49" s="33"/>
     </row>
-    <row r="50" ht="18" spans="1:5">
+    <row r="50" ht="14.25" spans="1:5">
       <c r="A50" s="29"/>
       <c r="B50" s="30">
         <v>49</v>
@@ -7189,7 +7189,7 @@
       <c r="D50" s="32"/>
       <c r="E50" s="33"/>
     </row>
-    <row r="51" ht="18" spans="1:5">
+    <row r="51" ht="14.25" spans="1:5">
       <c r="A51" s="38" t="s">
         <v>61</v>
       </c>
@@ -7202,7 +7202,7 @@
       <c r="D51" s="32"/>
       <c r="E51" s="33"/>
     </row>
-    <row r="52" ht="18" spans="1:5">
+    <row r="52" ht="14.25" spans="1:5">
       <c r="A52" s="39"/>
       <c r="B52" s="30">
         <v>51</v>
@@ -7213,7 +7213,7 @@
       <c r="D52" s="32"/>
       <c r="E52" s="33"/>
     </row>
-    <row r="53" ht="18" spans="1:5">
+    <row r="53" ht="14.25" spans="1:5">
       <c r="A53" s="39"/>
       <c r="B53" s="30">
         <v>52</v>
@@ -7224,7 +7224,7 @@
       <c r="D53" s="32"/>
       <c r="E53" s="33"/>
     </row>
-    <row r="54" ht="53" spans="1:5">
+    <row r="54" ht="42.75" spans="1:5">
       <c r="A54" s="39"/>
       <c r="B54" s="40">
         <v>53</v>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="E54" s="33"/>
     </row>
-    <row r="55" ht="18" spans="1:5">
+    <row r="55" ht="14.25" spans="1:5">
       <c r="A55" s="42"/>
       <c r="B55" s="40">
         <v>54</v>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="E55" s="33"/>
     </row>
-    <row r="56" ht="18" spans="1:5">
+    <row r="56" ht="14.25" spans="1:5">
       <c r="A56" s="29" t="s">
         <v>68</v>
       </c>
@@ -7263,7 +7263,7 @@
       <c r="D56" s="32"/>
       <c r="E56" s="33"/>
     </row>
-    <row r="57" ht="36" spans="1:5">
+    <row r="57" ht="14.25" spans="1:5">
       <c r="A57" s="29"/>
       <c r="B57" s="30">
         <v>56</v>
@@ -7274,7 +7274,7 @@
       <c r="D57" s="32"/>
       <c r="E57" s="33"/>
     </row>
-    <row r="58" ht="18" spans="1:5">
+    <row r="58" ht="14.25" spans="1:5">
       <c r="A58" s="29" t="s">
         <v>71</v>
       </c>
@@ -7287,7 +7287,7 @@
       <c r="D58" s="32"/>
       <c r="E58" s="33"/>
     </row>
-    <row r="59" ht="18" spans="1:5">
+    <row r="59" ht="14.25" spans="1:5">
       <c r="A59" s="43" t="s">
         <v>73</v>
       </c>
@@ -7300,7 +7300,7 @@
       <c r="D59" s="32"/>
       <c r="E59" s="33"/>
     </row>
-    <row r="60" ht="18" spans="1:5">
+    <row r="60" ht="14.25" spans="1:5">
       <c r="A60" s="44"/>
       <c r="B60" s="30">
         <v>59</v>
@@ -7311,7 +7311,7 @@
       <c r="D60" s="32"/>
       <c r="E60" s="33"/>
     </row>
-    <row r="61" ht="18" spans="1:5">
+    <row r="61" ht="14.25" spans="1:5">
       <c r="A61" s="44"/>
       <c r="B61" s="30">
         <v>60</v>
@@ -7322,7 +7322,7 @@
       <c r="D61" s="32"/>
       <c r="E61" s="33"/>
     </row>
-    <row r="62" ht="18" spans="1:5">
+    <row r="62" ht="14.25" spans="1:5">
       <c r="A62" s="44"/>
       <c r="B62" s="30">
         <v>61</v>
@@ -7333,7 +7333,7 @@
       <c r="D62" s="32"/>
       <c r="E62" s="33"/>
     </row>
-    <row r="63" ht="18" spans="1:5">
+    <row r="63" ht="14.25" spans="1:5">
       <c r="A63" s="44"/>
       <c r="B63" s="30">
         <v>62</v>
@@ -7344,7 +7344,7 @@
       <c r="D63" s="32"/>
       <c r="E63" s="33"/>
     </row>
-    <row r="64" ht="18" spans="1:5">
+    <row r="64" ht="14.25" spans="1:5">
       <c r="A64" s="44"/>
       <c r="B64" s="30">
         <v>63</v>
@@ -7355,7 +7355,7 @@
       <c r="D64" s="32"/>
       <c r="E64" s="33"/>
     </row>
-    <row r="65" ht="18" spans="1:5">
+    <row r="65" ht="14.25" spans="1:5">
       <c r="A65" s="44"/>
       <c r="B65" s="30">
         <v>64</v>
@@ -7366,7 +7366,7 @@
       <c r="D65" s="32"/>
       <c r="E65" s="33"/>
     </row>
-    <row r="66" ht="18" spans="1:5">
+    <row r="66" ht="14.25" spans="1:5">
       <c r="A66" s="44"/>
       <c r="B66" s="30">
         <v>65</v>
@@ -7377,7 +7377,7 @@
       <c r="D66" s="32"/>
       <c r="E66" s="33"/>
     </row>
-    <row r="67" ht="18" spans="1:5">
+    <row r="67" ht="14.25" spans="1:5">
       <c r="A67" s="44"/>
       <c r="B67" s="30">
         <v>66</v>
@@ -7388,7 +7388,7 @@
       <c r="D67" s="32"/>
       <c r="E67" s="33"/>
     </row>
-    <row r="68" ht="18" spans="1:5">
+    <row r="68" ht="14.25" spans="1:5">
       <c r="A68" s="44"/>
       <c r="B68" s="30">
         <v>67</v>
@@ -7399,7 +7399,7 @@
       <c r="D68" s="32"/>
       <c r="E68" s="33"/>
     </row>
-    <row r="69" ht="18" spans="1:5">
+    <row r="69" ht="14.25" spans="1:5">
       <c r="A69" s="44"/>
       <c r="B69" s="30">
         <v>68</v>
@@ -7410,7 +7410,7 @@
       <c r="D69" s="32"/>
       <c r="E69" s="33"/>
     </row>
-    <row r="70" ht="18" spans="1:5">
+    <row r="70" ht="14.25" spans="1:5">
       <c r="A70" s="44"/>
       <c r="B70" s="30">
         <v>69</v>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="E70" s="33"/>
     </row>
-    <row r="71" ht="18" spans="1:5">
+    <row r="71" ht="14.25" spans="1:5">
       <c r="A71" s="44"/>
       <c r="B71" s="30">
         <v>70</v>
@@ -7434,7 +7434,7 @@
       <c r="D71" s="32"/>
       <c r="E71" s="33"/>
     </row>
-    <row r="72" ht="18" spans="1:5">
+    <row r="72" ht="14.25" spans="1:5">
       <c r="A72" s="44"/>
       <c r="B72" s="30">
         <v>71</v>
@@ -7445,7 +7445,7 @@
       <c r="D72" s="32"/>
       <c r="E72" s="33"/>
     </row>
-    <row r="73" ht="53" spans="1:5">
+    <row r="73" ht="28.5" spans="1:5">
       <c r="A73" s="45"/>
       <c r="B73" s="30">
         <v>72</v>
@@ -7456,7 +7456,7 @@
       <c r="D73" s="32"/>
       <c r="E73" s="33"/>
     </row>
-    <row r="74" ht="18" spans="1:5">
+    <row r="74" ht="14.25" spans="1:5">
       <c r="A74" s="29" t="s">
         <v>89</v>
       </c>
@@ -7469,7 +7469,7 @@
       <c r="D74" s="32"/>
       <c r="E74" s="33"/>
     </row>
-    <row r="75" ht="36" spans="1:5">
+    <row r="75" ht="28.5" spans="1:5">
       <c r="A75" s="29"/>
       <c r="B75" s="30">
         <v>74</v>
@@ -7480,7 +7480,7 @@
       <c r="D75" s="32"/>
       <c r="E75" s="33"/>
     </row>
-    <row r="76" ht="36" spans="1:5">
+    <row r="76" ht="28.5" spans="1:5">
       <c r="A76" s="29"/>
       <c r="B76" s="30">
         <v>75</v>
@@ -7491,7 +7491,7 @@
       <c r="D76" s="32"/>
       <c r="E76" s="33"/>
     </row>
-    <row r="77" ht="36" spans="1:5">
+    <row r="77" ht="14.25" spans="1:5">
       <c r="A77" s="29"/>
       <c r="B77" s="30">
         <v>76</v>
@@ -7502,7 +7502,7 @@
       <c r="D77" s="32"/>
       <c r="E77" s="33"/>
     </row>
-    <row r="78" ht="18" spans="1:5">
+    <row r="78" ht="14.25" spans="1:5">
       <c r="A78" s="29"/>
       <c r="B78" s="30">
         <v>77</v>
@@ -7513,7 +7513,7 @@
       <c r="D78" s="32"/>
       <c r="E78" s="33"/>
     </row>
-    <row r="79" ht="36" spans="1:5">
+    <row r="79" ht="14.25" spans="1:5">
       <c r="A79" s="29"/>
       <c r="B79" s="30">
         <v>78</v>
@@ -7524,7 +7524,7 @@
       <c r="D79" s="32"/>
       <c r="E79" s="33"/>
     </row>
-    <row r="80" ht="18" spans="1:5">
+    <row r="80" ht="14.25" spans="1:5">
       <c r="A80" s="29"/>
       <c r="B80" s="30">
         <v>79</v>
@@ -7535,7 +7535,7 @@
       <c r="D80" s="32"/>
       <c r="E80" s="33"/>
     </row>
-    <row r="81" ht="18" spans="1:5">
+    <row r="81" ht="14.25" spans="1:5">
       <c r="A81" s="29"/>
       <c r="B81" s="30">
         <v>80</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="E81" s="33"/>
     </row>
-    <row r="82" ht="18" spans="1:5">
+    <row r="82" ht="14.25" spans="1:5">
       <c r="A82" s="29"/>
       <c r="B82" s="30">
         <v>81</v>
@@ -7559,7 +7559,7 @@
       <c r="D82" s="32"/>
       <c r="E82" s="33"/>
     </row>
-    <row r="83" ht="18" spans="1:5">
+    <row r="83" ht="14.25" spans="1:5">
       <c r="A83" s="29"/>
       <c r="B83" s="30">
         <v>82</v>
@@ -7570,7 +7570,7 @@
       <c r="D83" s="32"/>
       <c r="E83" s="33"/>
     </row>
-    <row r="84" ht="18" spans="1:5">
+    <row r="84" ht="14.25" spans="1:5">
       <c r="A84" s="29"/>
       <c r="B84" s="30">
         <v>83</v>
@@ -7581,7 +7581,7 @@
       <c r="D84" s="32"/>
       <c r="E84" s="33"/>
     </row>
-    <row r="85" ht="18" spans="1:5">
+    <row r="85" ht="14.25" spans="1:5">
       <c r="A85" s="29"/>
       <c r="B85" s="30">
         <v>84</v>
@@ -7592,7 +7592,7 @@
       <c r="D85" s="32"/>
       <c r="E85" s="33"/>
     </row>
-    <row r="86" ht="18" spans="1:5">
+    <row r="86" ht="14.25" spans="1:5">
       <c r="A86" s="29"/>
       <c r="B86" s="30">
         <v>85</v>
@@ -7603,7 +7603,7 @@
       <c r="D86" s="32"/>
       <c r="E86" s="33"/>
     </row>
-    <row r="87" ht="18" spans="1:5">
+    <row r="87" ht="14.25" spans="1:5">
       <c r="A87" s="29"/>
       <c r="B87" s="30">
         <v>86</v>
@@ -7614,7 +7614,7 @@
       <c r="D87" s="32"/>
       <c r="E87" s="33"/>
     </row>
-    <row r="88" ht="18" spans="1:5">
+    <row r="88" ht="14.25" spans="1:5">
       <c r="A88" s="29"/>
       <c r="B88" s="30">
         <v>87</v>
@@ -7625,7 +7625,7 @@
       <c r="D88" s="32"/>
       <c r="E88" s="33"/>
     </row>
-    <row r="89" ht="18" spans="1:5">
+    <row r="89" ht="14.25" spans="1:5">
       <c r="A89" s="29"/>
       <c r="B89" s="30">
         <v>88</v>
@@ -7636,7 +7636,7 @@
       <c r="D89" s="32"/>
       <c r="E89" s="33"/>
     </row>
-    <row r="90" ht="18" spans="1:5">
+    <row r="90" ht="14.25" spans="1:5">
       <c r="A90" s="29"/>
       <c r="B90" s="30">
         <v>89</v>
@@ -7647,7 +7647,7 @@
       <c r="D90" s="32"/>
       <c r="E90" s="33"/>
     </row>
-    <row r="91" ht="18" spans="1:5">
+    <row r="91" ht="14.25" spans="1:5">
       <c r="A91" s="29" t="s">
         <v>107</v>
       </c>
@@ -7660,7 +7660,7 @@
       <c r="D91" s="32"/>
       <c r="E91" s="33"/>
     </row>
-    <row r="92" ht="18" spans="1:5">
+    <row r="92" ht="14.25" spans="1:5">
       <c r="A92" s="29"/>
       <c r="B92" s="30">
         <v>91</v>
@@ -7671,7 +7671,7 @@
       <c r="D92" s="32"/>
       <c r="E92" s="33"/>
     </row>
-    <row r="93" ht="18" spans="1:5">
+    <row r="93" ht="14.25" spans="1:5">
       <c r="A93" s="29"/>
       <c r="B93" s="30">
         <v>92</v>
@@ -7684,7 +7684,7 @@
       </c>
       <c r="E93" s="33"/>
     </row>
-    <row r="94" ht="36" spans="1:5">
+    <row r="94" ht="28.5" spans="1:5">
       <c r="A94" s="29"/>
       <c r="B94" s="30">
         <v>93</v>
@@ -7695,7 +7695,7 @@
       <c r="D94" s="32"/>
       <c r="E94" s="33"/>
     </row>
-    <row r="95" ht="36" spans="1:5">
+    <row r="95" ht="28.5" spans="1:5">
       <c r="A95" s="29"/>
       <c r="B95" s="30">
         <v>94</v>
@@ -7706,7 +7706,7 @@
       <c r="D95" s="32"/>
       <c r="E95" s="33"/>
     </row>
-    <row r="96" ht="18" spans="1:5">
+    <row r="96" ht="14.25" spans="1:5">
       <c r="A96" s="29"/>
       <c r="B96" s="30">
         <v>95</v>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="E96" s="33"/>
     </row>
-    <row r="97" ht="18" spans="1:5">
+    <row r="97" ht="14.25" spans="1:5">
       <c r="A97" s="29"/>
       <c r="B97" s="30">
         <v>96</v>
@@ -7730,7 +7730,7 @@
       <c r="D97" s="32"/>
       <c r="E97" s="33"/>
     </row>
-    <row r="98" ht="18" spans="1:5">
+    <row r="98" ht="14.25" spans="1:5">
       <c r="A98" s="29"/>
       <c r="B98" s="30">
         <v>97</v>
@@ -7741,7 +7741,7 @@
       <c r="D98" s="32"/>
       <c r="E98" s="33"/>
     </row>
-    <row r="99" ht="18" spans="1:5">
+    <row r="99" ht="14.25" spans="1:5">
       <c r="A99" s="29"/>
       <c r="B99" s="30">
         <v>98</v>
@@ -7752,7 +7752,7 @@
       <c r="D99" s="32"/>
       <c r="E99" s="33"/>
     </row>
-    <row r="100" ht="18" spans="1:5">
+    <row r="100" ht="14.25" spans="1:5">
       <c r="A100" s="29"/>
       <c r="B100" s="30">
         <v>99</v>
@@ -7763,7 +7763,7 @@
       <c r="D100" s="32"/>
       <c r="E100" s="33"/>
     </row>
-    <row r="101" ht="18" spans="1:5">
+    <row r="101" ht="14.25" spans="1:5">
       <c r="A101" s="29" t="s">
         <v>118</v>
       </c>
@@ -7776,7 +7776,7 @@
       <c r="D101" s="32"/>
       <c r="E101" s="33"/>
     </row>
-    <row r="102" ht="18" spans="1:5">
+    <row r="102" ht="14.25" spans="1:5">
       <c r="A102" s="29"/>
       <c r="B102" s="30">
         <v>101</v>
@@ -7787,7 +7787,7 @@
       <c r="D102" s="32"/>
       <c r="E102" s="33"/>
     </row>
-    <row r="103" ht="18" spans="1:5">
+    <row r="103" ht="14.25" spans="1:5">
       <c r="A103" s="46" t="s">
         <v>121</v>
       </c>
@@ -7800,7 +7800,7 @@
       <c r="D103" s="32"/>
       <c r="E103" s="33"/>
     </row>
-    <row r="104" ht="18" spans="1:5">
+    <row r="104" ht="14.25" spans="1:5">
       <c r="A104" s="46"/>
       <c r="B104" s="30">
         <v>103</v>
@@ -7811,7 +7811,7 @@
       <c r="D104" s="32"/>
       <c r="E104" s="33"/>
     </row>
-    <row r="105" ht="18" spans="1:5">
+    <row r="105" ht="14.25" spans="1:5">
       <c r="A105" s="46"/>
       <c r="B105" s="30">
         <v>104</v>
@@ -7822,7 +7822,7 @@
       <c r="D105" s="32"/>
       <c r="E105" s="33"/>
     </row>
-    <row r="106" ht="18" spans="1:5">
+    <row r="106" ht="14.25" spans="1:5">
       <c r="A106" s="46"/>
       <c r="B106" s="30">
         <v>105</v>
@@ -7833,7 +7833,7 @@
       <c r="D106" s="32"/>
       <c r="E106" s="33"/>
     </row>
-    <row r="107" ht="18" spans="1:5">
+    <row r="107" ht="14.25" spans="1:5">
       <c r="A107" s="46"/>
       <c r="B107" s="30">
         <v>106</v>
@@ -7844,7 +7844,7 @@
       <c r="D107" s="32"/>
       <c r="E107" s="33"/>
     </row>
-    <row r="108" ht="18" spans="1:5">
+    <row r="108" ht="14.25" spans="1:5">
       <c r="A108" s="46"/>
       <c r="B108" s="30">
         <v>107</v>
@@ -7855,7 +7855,7 @@
       <c r="D108" s="32"/>
       <c r="E108" s="33"/>
     </row>
-    <row r="109" ht="18" spans="1:5">
+    <row r="109" ht="14.25" spans="1:5">
       <c r="A109" s="46"/>
       <c r="B109" s="30">
         <v>108</v>
@@ -7866,7 +7866,7 @@
       <c r="D109" s="32"/>
       <c r="E109" s="33"/>
     </row>
-    <row r="110" ht="18" spans="1:5">
+    <row r="110" ht="14.25" spans="1:5">
       <c r="A110" s="29" t="s">
         <v>129</v>
       </c>
@@ -7879,7 +7879,7 @@
       <c r="D110" s="32"/>
       <c r="E110" s="33"/>
     </row>
-    <row r="111" ht="18" spans="1:5">
+    <row r="111" ht="14.25" spans="1:5">
       <c r="A111" s="29"/>
       <c r="B111" s="30">
         <v>110</v>
@@ -7890,7 +7890,7 @@
       <c r="D111" s="32"/>
       <c r="E111" s="33"/>
     </row>
-    <row r="112" ht="36" spans="1:5">
+    <row r="112" ht="28.5" spans="1:5">
       <c r="A112" s="29"/>
       <c r="B112" s="30">
         <v>111</v>
@@ -7901,7 +7901,7 @@
       <c r="D112" s="32"/>
       <c r="E112" s="33"/>
     </row>
-    <row r="113" ht="36" spans="1:5">
+    <row r="113" ht="28.5" spans="1:5">
       <c r="A113" s="29"/>
       <c r="B113" s="30">
         <v>112</v>
@@ -7912,7 +7912,7 @@
       <c r="D113" s="32"/>
       <c r="E113" s="33"/>
     </row>
-    <row r="114" ht="18" spans="1:5">
+    <row r="114" ht="14.25" spans="1:5">
       <c r="A114" s="29"/>
       <c r="B114" s="30">
         <v>113</v>
@@ -7947,7 +7947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E105"/>
   <sheetViews>
@@ -7955,12 +7955,12 @@
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="122.169642857143" customWidth="1"/>
+    <col min="3" max="3" width="122.166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.75" spans="2:5">
+    <row r="1" ht="15" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>135</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>132</v>
       </c>
       <c r="D91" s="13"/>
-      <c r="E91" s="21"/>
+      <c r="E91" s="20"/>
     </row>
     <row r="92" ht="40" customHeight="1" spans="1:5">
       <c r="A92" t="s">
@@ -9276,7 +9276,7 @@
         <v>330</v>
       </c>
       <c r="D101" s="13"/>
-      <c r="E101" s="21"/>
+      <c r="E101" s="20"/>
     </row>
     <row r="102" ht="40" customHeight="1" spans="1:5">
       <c r="A102" t="s">
@@ -9312,13 +9312,15 @@
         <v>335</v>
       </c>
       <c r="D104" s="13"/>
-      <c r="E104" s="21"/>
+      <c r="E104" s="20"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="20"/>
+      <c r="B105" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A105"/>
+  <autoFilter ref="A1:A105">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/论文参考/硕士论文格式检查表2018new 20190322.xlsx
+++ b/论文参考/硕士论文格式检查表2018new 20190322.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="16000"/>
+    <workbookView windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="分类" sheetId="2" r:id="rId1"/>
@@ -5275,9 +5275,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -5399,10 +5399,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5413,8 +5414,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5429,39 +5469,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5482,15 +5490,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5498,22 +5500,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5527,17 +5529,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5570,19 +5570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5594,25 +5582,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5630,7 +5618,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5642,55 +5672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5708,31 +5696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5750,7 +5714,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5893,23 +5893,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5926,34 +5911,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5987,157 +5946,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6244,6 +6244,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
@@ -6605,8 +6608,8 @@
   <sheetPr/>
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8303571428571" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -7012,7 +7015,7 @@
       <c r="B35" s="30">
         <v>34</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="36" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="32"/>
@@ -7034,7 +7037,7 @@
       <c r="B37" s="30">
         <v>36</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="36" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="32"/>
@@ -7137,7 +7140,7 @@
       <c r="B46" s="30">
         <v>45</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="37" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="32"/>
@@ -7150,7 +7153,7 @@
       <c r="B47" s="30">
         <v>46</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="38" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="32"/>
@@ -7161,7 +7164,7 @@
       <c r="B48" s="30">
         <v>47</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="38" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="32"/>
@@ -7190,7 +7193,7 @@
       <c r="E50" s="33"/>
     </row>
     <row r="51" ht="18" spans="1:5">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="30">
@@ -7203,7 +7206,7 @@
       <c r="E51" s="33"/>
     </row>
     <row r="52" ht="18" spans="1:5">
-      <c r="A52" s="39"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="30">
         <v>51</v>
       </c>
@@ -7214,7 +7217,7 @@
       <c r="E52" s="33"/>
     </row>
     <row r="53" ht="18" spans="1:5">
-      <c r="A53" s="39"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="30">
         <v>52</v>
       </c>
@@ -7225,11 +7228,11 @@
       <c r="E53" s="33"/>
     </row>
     <row r="54" ht="53" spans="1:5">
-      <c r="A54" s="39"/>
-      <c r="B54" s="40">
+      <c r="A54" s="40"/>
+      <c r="B54" s="41">
         <v>53</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="42" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="32" t="s">
@@ -7238,11 +7241,11 @@
       <c r="E54" s="33"/>
     </row>
     <row r="55" ht="18" spans="1:5">
-      <c r="A55" s="42"/>
-      <c r="B55" s="40">
+      <c r="A55" s="43"/>
+      <c r="B55" s="41">
         <v>54</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="42" t="s">
         <v>67</v>
       </c>
       <c r="D55" s="32" t="s">
@@ -7288,7 +7291,7 @@
       <c r="E58" s="33"/>
     </row>
     <row r="59" ht="18" spans="1:5">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="44" t="s">
         <v>73</v>
       </c>
       <c r="B59" s="30">
@@ -7301,7 +7304,7 @@
       <c r="E59" s="33"/>
     </row>
     <row r="60" ht="18" spans="1:5">
-      <c r="A60" s="44"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="30">
         <v>59</v>
       </c>
@@ -7312,7 +7315,7 @@
       <c r="E60" s="33"/>
     </row>
     <row r="61" ht="18" spans="1:5">
-      <c r="A61" s="44"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="30">
         <v>60</v>
       </c>
@@ -7323,7 +7326,7 @@
       <c r="E61" s="33"/>
     </row>
     <row r="62" ht="18" spans="1:5">
-      <c r="A62" s="44"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="30">
         <v>61</v>
       </c>
@@ -7334,7 +7337,7 @@
       <c r="E62" s="33"/>
     </row>
     <row r="63" ht="18" spans="1:5">
-      <c r="A63" s="44"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="30">
         <v>62</v>
       </c>
@@ -7345,7 +7348,7 @@
       <c r="E63" s="33"/>
     </row>
     <row r="64" ht="18" spans="1:5">
-      <c r="A64" s="44"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="30">
         <v>63</v>
       </c>
@@ -7356,7 +7359,7 @@
       <c r="E64" s="33"/>
     </row>
     <row r="65" ht="18" spans="1:5">
-      <c r="A65" s="44"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="30">
         <v>64</v>
       </c>
@@ -7367,7 +7370,7 @@
       <c r="E65" s="33"/>
     </row>
     <row r="66" ht="18" spans="1:5">
-      <c r="A66" s="44"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="30">
         <v>65</v>
       </c>
@@ -7378,7 +7381,7 @@
       <c r="E66" s="33"/>
     </row>
     <row r="67" ht="18" spans="1:5">
-      <c r="A67" s="44"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="30">
         <v>66</v>
       </c>
@@ -7389,7 +7392,7 @@
       <c r="E67" s="33"/>
     </row>
     <row r="68" ht="18" spans="1:5">
-      <c r="A68" s="44"/>
+      <c r="A68" s="45"/>
       <c r="B68" s="30">
         <v>67</v>
       </c>
@@ -7400,7 +7403,7 @@
       <c r="E68" s="33"/>
     </row>
     <row r="69" ht="18" spans="1:5">
-      <c r="A69" s="44"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="30">
         <v>68</v>
       </c>
@@ -7411,7 +7414,7 @@
       <c r="E69" s="33"/>
     </row>
     <row r="70" ht="18" spans="1:5">
-      <c r="A70" s="44"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="30">
         <v>69</v>
       </c>
@@ -7424,7 +7427,7 @@
       <c r="E70" s="33"/>
     </row>
     <row r="71" ht="18" spans="1:5">
-      <c r="A71" s="44"/>
+      <c r="A71" s="45"/>
       <c r="B71" s="30">
         <v>70</v>
       </c>
@@ -7435,7 +7438,7 @@
       <c r="E71" s="33"/>
     </row>
     <row r="72" ht="18" spans="1:5">
-      <c r="A72" s="44"/>
+      <c r="A72" s="45"/>
       <c r="B72" s="30">
         <v>71</v>
       </c>
@@ -7446,7 +7449,7 @@
       <c r="E72" s="33"/>
     </row>
     <row r="73" ht="53" spans="1:5">
-      <c r="A73" s="45"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="30">
         <v>72</v>
       </c>
@@ -7788,7 +7791,7 @@
       <c r="E102" s="33"/>
     </row>
     <row r="103" ht="18" spans="1:5">
-      <c r="A103" s="46" t="s">
+      <c r="A103" s="47" t="s">
         <v>121</v>
       </c>
       <c r="B103" s="30">
@@ -7801,7 +7804,7 @@
       <c r="E103" s="33"/>
     </row>
     <row r="104" ht="18" spans="1:5">
-      <c r="A104" s="46"/>
+      <c r="A104" s="47"/>
       <c r="B104" s="30">
         <v>103</v>
       </c>
@@ -7812,7 +7815,7 @@
       <c r="E104" s="33"/>
     </row>
     <row r="105" ht="18" spans="1:5">
-      <c r="A105" s="46"/>
+      <c r="A105" s="47"/>
       <c r="B105" s="30">
         <v>104</v>
       </c>
@@ -7823,7 +7826,7 @@
       <c r="E105" s="33"/>
     </row>
     <row r="106" ht="18" spans="1:5">
-      <c r="A106" s="46"/>
+      <c r="A106" s="47"/>
       <c r="B106" s="30">
         <v>105</v>
       </c>
@@ -7834,7 +7837,7 @@
       <c r="E106" s="33"/>
     </row>
     <row r="107" ht="18" spans="1:5">
-      <c r="A107" s="46"/>
+      <c r="A107" s="47"/>
       <c r="B107" s="30">
         <v>106</v>
       </c>
@@ -7845,7 +7848,7 @@
       <c r="E107" s="33"/>
     </row>
     <row r="108" ht="18" spans="1:5">
-      <c r="A108" s="46"/>
+      <c r="A108" s="47"/>
       <c r="B108" s="30">
         <v>107</v>
       </c>
@@ -7856,7 +7859,7 @@
       <c r="E108" s="33"/>
     </row>
     <row r="109" ht="18" spans="1:5">
-      <c r="A109" s="46"/>
+      <c r="A109" s="47"/>
       <c r="B109" s="30">
         <v>108</v>
       </c>

--- a/论文参考/硕士论文格式检查表2018new 20190322.xlsx
+++ b/论文参考/硕士论文格式检查表2018new 20190322.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="16600"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="分类" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="336">
   <si>
     <t>类别</t>
   </si>
@@ -5275,9 +5275,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -5399,11 +5399,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5415,7 +5443,54 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -5431,30 +5506,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5462,45 +5521,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5514,30 +5535,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5570,19 +5570,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5594,43 +5654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5642,85 +5672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5732,7 +5684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5750,7 +5708,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5893,8 +5893,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5910,9 +5910,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5928,36 +5945,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5979,11 +5966,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5992,152 +5992,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6198,12 +6198,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6239,6 +6239,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6285,54 +6288,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -6604,25 +6607,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8303571428571" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.33035714285714" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.33333333333333" style="23" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="23" customWidth="1"/>
     <col min="3" max="3" width="126.5" style="24" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="25" customWidth="1"/>
-    <col min="5" max="5" width="10.6696428571429" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="10.8303571428571" style="24"/>
+    <col min="5" max="5" width="10.6666666666667" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" ht="21" spans="1:5">
+    <row r="1" s="22" customFormat="1" ht="18.75" spans="1:5">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:5">
+    <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
@@ -6650,7 +6653,7 @@
       <c r="D2" s="32"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" ht="18" spans="1:5">
+    <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="29"/>
       <c r="B3" s="30">
         <v>2</v>
@@ -6661,7 +6664,7 @@
       <c r="D3" s="32"/>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" ht="18" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" s="29"/>
       <c r="B4" s="30">
         <v>3</v>
@@ -6672,18 +6675,18 @@
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" ht="36" spans="1:5">
+    <row r="5" ht="28.5" spans="1:5">
       <c r="A5" s="29"/>
       <c r="B5" s="30">
         <v>4</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" ht="18" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="29"/>
       <c r="B6" s="30">
         <v>5</v>
@@ -6694,20 +6697,20 @@
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" ht="18" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="30">
         <v>6</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" ht="18" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="29"/>
       <c r="B8" s="30">
         <v>7</v>
@@ -6718,29 +6721,29 @@
       <c r="D8" s="32"/>
       <c r="E8" s="33"/>
     </row>
-    <row r="9" ht="36" spans="1:5">
+    <row r="9" ht="28.5" spans="1:5">
       <c r="A9" s="29"/>
       <c r="B9" s="30">
         <v>8</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" ht="36" spans="1:5">
+    <row r="10" ht="28.5" spans="1:5">
       <c r="A10" s="29"/>
       <c r="B10" s="30">
         <v>9</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="33"/>
     </row>
-    <row r="11" ht="18" spans="1:5">
+    <row r="11" spans="1:5">
       <c r="A11" s="29"/>
       <c r="B11" s="30">
         <v>10</v>
@@ -6751,18 +6754,18 @@
       <c r="D11" s="32"/>
       <c r="E11" s="33"/>
     </row>
-    <row r="12" ht="18" spans="1:5">
+    <row r="12" spans="1:5">
       <c r="A12" s="29"/>
       <c r="B12" s="30">
         <v>11</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" ht="36" spans="1:5">
+    <row r="13" ht="42.75" spans="1:5">
       <c r="A13" s="29"/>
       <c r="B13" s="30">
         <v>12</v>
@@ -6773,53 +6776,53 @@
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
     </row>
-    <row r="14" ht="18" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" s="29"/>
       <c r="B14" s="30">
         <v>13</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="33"/>
     </row>
-    <row r="15" ht="18" spans="1:5">
+    <row r="15" spans="1:5">
       <c r="A15" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="30">
         <v>14</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" ht="18" spans="1:5">
+    <row r="16" spans="1:5">
       <c r="A16" s="29"/>
       <c r="B16" s="30">
         <v>15</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" ht="18" spans="1:5">
+    <row r="17" spans="1:5">
       <c r="A17" s="29"/>
       <c r="B17" s="30">
         <v>16</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
     </row>
-    <row r="18" ht="18" spans="1:5">
+    <row r="18" spans="1:5">
       <c r="A18" s="29"/>
       <c r="B18" s="30">
         <v>17</v>
@@ -6830,7 +6833,7 @@
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
     </row>
-    <row r="19" ht="18" spans="1:5">
+    <row r="19" spans="1:5">
       <c r="A19" s="29"/>
       <c r="B19" s="30">
         <v>18</v>
@@ -6841,29 +6844,29 @@
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" ht="18" spans="1:5">
+    <row r="20" spans="1:5">
       <c r="A20" s="29"/>
       <c r="B20" s="30">
         <v>19</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="33"/>
     </row>
-    <row r="21" ht="18" spans="1:5">
+    <row r="21" spans="1:5">
       <c r="A21" s="29"/>
       <c r="B21" s="30">
         <v>20</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" ht="18" spans="1:5">
+    <row r="22" spans="1:5">
       <c r="A22" s="29"/>
       <c r="B22" s="30">
         <v>21</v>
@@ -6874,7 +6877,7 @@
       <c r="D22" s="32"/>
       <c r="E22" s="33"/>
     </row>
-    <row r="23" ht="18" spans="1:5">
+    <row r="23" ht="14.25" spans="1:5">
       <c r="A23" s="29"/>
       <c r="B23" s="30">
         <v>22</v>
@@ -6885,7 +6888,7 @@
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
     </row>
-    <row r="24" ht="18" spans="1:5">
+    <row r="24" ht="14.25" spans="1:5">
       <c r="A24" s="29"/>
       <c r="B24" s="30">
         <v>23</v>
@@ -6896,7 +6899,7 @@
       <c r="D24" s="32"/>
       <c r="E24" s="33"/>
     </row>
-    <row r="25" ht="36" spans="1:5">
+    <row r="25" ht="14.25" spans="1:5">
       <c r="A25" s="29" t="s">
         <v>30</v>
       </c>
@@ -6909,7 +6912,7 @@
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
     </row>
-    <row r="26" ht="18" spans="1:5">
+    <row r="26" ht="14.25" spans="1:5">
       <c r="A26" s="29"/>
       <c r="B26" s="30">
         <v>25</v>
@@ -6920,7 +6923,7 @@
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
     </row>
-    <row r="27" ht="18" spans="1:5">
+    <row r="27" ht="14.25" spans="1:5">
       <c r="A27" s="29"/>
       <c r="B27" s="30">
         <v>26</v>
@@ -6931,7 +6934,7 @@
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
     </row>
-    <row r="28" ht="18" spans="1:5">
+    <row r="28" ht="14.25" spans="1:5">
       <c r="A28" s="29"/>
       <c r="B28" s="30">
         <v>27</v>
@@ -6942,7 +6945,7 @@
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
     </row>
-    <row r="29" ht="18" spans="1:5">
+    <row r="29" ht="14.25" spans="1:5">
       <c r="A29" s="29"/>
       <c r="B29" s="30">
         <v>28</v>
@@ -6955,7 +6958,7 @@
       </c>
       <c r="E29" s="33"/>
     </row>
-    <row r="30" ht="18" spans="1:5">
+    <row r="30" ht="14.25" spans="1:5">
       <c r="A30" s="29"/>
       <c r="B30" s="30">
         <v>29</v>
@@ -6966,7 +6969,7 @@
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
     </row>
-    <row r="31" ht="18" spans="1:5">
+    <row r="31" ht="14.25" spans="1:5">
       <c r="A31" s="29"/>
       <c r="B31" s="30">
         <v>30</v>
@@ -6977,106 +6980,106 @@
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
     </row>
-    <row r="32" ht="18" spans="1:5">
+    <row r="32" ht="14.25" spans="1:5">
       <c r="A32" s="29"/>
       <c r="B32" s="30">
         <v>31</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="35" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
     </row>
-    <row r="33" ht="18" spans="1:5">
+    <row r="33" ht="14.25" spans="1:5">
       <c r="A33" s="29"/>
       <c r="B33" s="30">
         <v>32</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="36" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
     </row>
-    <row r="34" ht="18" spans="1:5">
+    <row r="34" ht="14.25" spans="1:5">
       <c r="A34" s="29"/>
       <c r="B34" s="30">
         <v>33</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
     </row>
-    <row r="35" ht="18" spans="1:5">
+    <row r="35" ht="14.25" spans="1:5">
       <c r="A35" s="29"/>
       <c r="B35" s="30">
         <v>34</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" ht="18" spans="1:5">
+    <row r="36" ht="14.25" spans="1:5">
       <c r="A36" s="29"/>
       <c r="B36" s="30">
         <v>35</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="32"/>
       <c r="E36" s="33"/>
     </row>
-    <row r="37" ht="18" spans="1:5">
+    <row r="37" ht="14.25" spans="1:5">
       <c r="A37" s="29"/>
       <c r="B37" s="30">
         <v>36</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="37" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="33"/>
     </row>
-    <row r="38" ht="18" spans="1:5">
+    <row r="38" ht="14.25" spans="1:5">
       <c r="A38" s="29"/>
       <c r="B38" s="30">
         <v>37</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
     </row>
-    <row r="39" ht="18" spans="1:5">
+    <row r="39" ht="14.25" spans="1:5">
       <c r="A39" s="29"/>
       <c r="B39" s="30">
         <v>38</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="33"/>
     </row>
-    <row r="40" ht="18" spans="1:5">
+    <row r="40" ht="14.25" spans="1:5">
       <c r="A40" s="29"/>
       <c r="B40" s="30">
         <v>39</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="36" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="33"/>
     </row>
-    <row r="41" ht="18" spans="1:5">
+    <row r="41" ht="14.25" spans="1:5">
       <c r="A41" s="29"/>
       <c r="B41" s="30">
         <v>40</v>
@@ -7087,7 +7090,7 @@
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
     </row>
-    <row r="42" ht="18" spans="1:5">
+    <row r="42" ht="14.25" spans="1:5">
       <c r="A42" s="29" t="s">
         <v>49</v>
       </c>
@@ -7100,7 +7103,7 @@
       <c r="D42" s="32"/>
       <c r="E42" s="33"/>
     </row>
-    <row r="43" ht="18" spans="1:5">
+    <row r="43" ht="14.25" spans="1:5">
       <c r="A43" s="29"/>
       <c r="B43" s="30">
         <v>42</v>
@@ -7111,7 +7114,7 @@
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
     </row>
-    <row r="44" ht="18" spans="1:5">
+    <row r="44" ht="14.25" spans="1:5">
       <c r="A44" s="29" t="s">
         <v>52</v>
       </c>
@@ -7124,7 +7127,7 @@
       <c r="D44" s="32"/>
       <c r="E44" s="33"/>
     </row>
-    <row r="45" ht="18" spans="1:5">
+    <row r="45" ht="14.25" spans="1:5">
       <c r="A45" s="29"/>
       <c r="B45" s="30">
         <v>44</v>
@@ -7135,42 +7138,42 @@
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
     </row>
-    <row r="46" ht="17.6" spans="1:5">
+    <row r="46" ht="14.25" spans="1:5">
       <c r="A46" s="29"/>
       <c r="B46" s="30">
         <v>45</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="38" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="33"/>
     </row>
-    <row r="47" ht="17.6" spans="1:5">
+    <row r="47" ht="14.25" spans="1:5">
       <c r="A47" s="29" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="30">
         <v>46</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="39" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="33"/>
     </row>
-    <row r="48" ht="17.6" spans="1:5">
+    <row r="48" ht="14.25" spans="1:5">
       <c r="A48" s="29"/>
       <c r="B48" s="30">
         <v>47</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="39" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="32"/>
       <c r="E48" s="33"/>
     </row>
-    <row r="49" ht="18" spans="1:5">
+    <row r="49" ht="14.25" spans="1:5">
       <c r="A49" s="29"/>
       <c r="B49" s="30">
         <v>48</v>
@@ -7181,7 +7184,7 @@
       <c r="D49" s="32"/>
       <c r="E49" s="33"/>
     </row>
-    <row r="50" ht="18" spans="1:5">
+    <row r="50" ht="14.25" spans="1:5">
       <c r="A50" s="29"/>
       <c r="B50" s="30">
         <v>49</v>
@@ -7192,8 +7195,8 @@
       <c r="D50" s="32"/>
       <c r="E50" s="33"/>
     </row>
-    <row r="51" ht="18" spans="1:5">
-      <c r="A51" s="39" t="s">
+    <row r="51" ht="14.25" spans="1:5">
+      <c r="A51" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="30">
@@ -7205,8 +7208,8 @@
       <c r="D51" s="32"/>
       <c r="E51" s="33"/>
     </row>
-    <row r="52" ht="18" spans="1:5">
-      <c r="A52" s="40"/>
+    <row r="52" ht="14.25" spans="1:5">
+      <c r="A52" s="41"/>
       <c r="B52" s="30">
         <v>51</v>
       </c>
@@ -7216,23 +7219,23 @@
       <c r="D52" s="32"/>
       <c r="E52" s="33"/>
     </row>
-    <row r="53" ht="18" spans="1:5">
-      <c r="A53" s="40"/>
+    <row r="53" ht="14.25" spans="1:5">
+      <c r="A53" s="41"/>
       <c r="B53" s="30">
         <v>52</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="36" t="s">
         <v>64</v>
       </c>
       <c r="D53" s="32"/>
       <c r="E53" s="33"/>
     </row>
-    <row r="54" ht="53" spans="1:5">
-      <c r="A54" s="40"/>
-      <c r="B54" s="41">
+    <row r="54" ht="42.75" spans="1:5">
+      <c r="A54" s="41"/>
+      <c r="B54" s="42">
         <v>53</v>
       </c>
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="32" t="s">
@@ -7240,12 +7243,12 @@
       </c>
       <c r="E54" s="33"/>
     </row>
-    <row r="55" ht="18" spans="1:5">
-      <c r="A55" s="43"/>
-      <c r="B55" s="41">
+    <row r="55" ht="14.25" spans="1:5">
+      <c r="A55" s="44"/>
+      <c r="B55" s="42">
         <v>54</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D55" s="32" t="s">
@@ -7253,7 +7256,7 @@
       </c>
       <c r="E55" s="33"/>
     </row>
-    <row r="56" ht="18" spans="1:5">
+    <row r="56" ht="14.25" spans="1:5">
       <c r="A56" s="29" t="s">
         <v>68</v>
       </c>
@@ -7266,18 +7269,18 @@
       <c r="D56" s="32"/>
       <c r="E56" s="33"/>
     </row>
-    <row r="57" ht="36" spans="1:5">
+    <row r="57" ht="14.25" spans="1:5">
       <c r="A57" s="29"/>
       <c r="B57" s="30">
         <v>56</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D57" s="32"/>
       <c r="E57" s="33"/>
     </row>
-    <row r="58" ht="18" spans="1:5">
+    <row r="58" ht="14.25" spans="1:5">
       <c r="A58" s="29" t="s">
         <v>71</v>
       </c>
@@ -7290,8 +7293,8 @@
       <c r="D58" s="32"/>
       <c r="E58" s="33"/>
     </row>
-    <row r="59" ht="18" spans="1:5">
-      <c r="A59" s="44" t="s">
+    <row r="59" ht="14.25" spans="1:5">
+      <c r="A59" s="45" t="s">
         <v>73</v>
       </c>
       <c r="B59" s="30">
@@ -7303,8 +7306,8 @@
       <c r="D59" s="32"/>
       <c r="E59" s="33"/>
     </row>
-    <row r="60" ht="18" spans="1:5">
-      <c r="A60" s="45"/>
+    <row r="60" ht="14.25" spans="1:5">
+      <c r="A60" s="46"/>
       <c r="B60" s="30">
         <v>59</v>
       </c>
@@ -7314,8 +7317,8 @@
       <c r="D60" s="32"/>
       <c r="E60" s="33"/>
     </row>
-    <row r="61" ht="18" spans="1:5">
-      <c r="A61" s="45"/>
+    <row r="61" ht="14.25" spans="1:5">
+      <c r="A61" s="46"/>
       <c r="B61" s="30">
         <v>60</v>
       </c>
@@ -7325,8 +7328,8 @@
       <c r="D61" s="32"/>
       <c r="E61" s="33"/>
     </row>
-    <row r="62" ht="18" spans="1:5">
-      <c r="A62" s="45"/>
+    <row r="62" ht="14.25" spans="1:5">
+      <c r="A62" s="46"/>
       <c r="B62" s="30">
         <v>61</v>
       </c>
@@ -7336,8 +7339,8 @@
       <c r="D62" s="32"/>
       <c r="E62" s="33"/>
     </row>
-    <row r="63" ht="18" spans="1:5">
-      <c r="A63" s="45"/>
+    <row r="63" ht="14.25" spans="1:5">
+      <c r="A63" s="46"/>
       <c r="B63" s="30">
         <v>62</v>
       </c>
@@ -7347,8 +7350,8 @@
       <c r="D63" s="32"/>
       <c r="E63" s="33"/>
     </row>
-    <row r="64" ht="18" spans="1:5">
-      <c r="A64" s="45"/>
+    <row r="64" ht="14.25" spans="1:5">
+      <c r="A64" s="46"/>
       <c r="B64" s="30">
         <v>63</v>
       </c>
@@ -7358,8 +7361,8 @@
       <c r="D64" s="32"/>
       <c r="E64" s="33"/>
     </row>
-    <row r="65" ht="18" spans="1:5">
-      <c r="A65" s="45"/>
+    <row r="65" ht="14.25" spans="1:5">
+      <c r="A65" s="46"/>
       <c r="B65" s="30">
         <v>64</v>
       </c>
@@ -7369,8 +7372,8 @@
       <c r="D65" s="32"/>
       <c r="E65" s="33"/>
     </row>
-    <row r="66" ht="18" spans="1:5">
-      <c r="A66" s="45"/>
+    <row r="66" ht="14.25" spans="1:5">
+      <c r="A66" s="46"/>
       <c r="B66" s="30">
         <v>65</v>
       </c>
@@ -7380,8 +7383,8 @@
       <c r="D66" s="32"/>
       <c r="E66" s="33"/>
     </row>
-    <row r="67" ht="18" spans="1:5">
-      <c r="A67" s="45"/>
+    <row r="67" ht="14.25" spans="1:5">
+      <c r="A67" s="46"/>
       <c r="B67" s="30">
         <v>66</v>
       </c>
@@ -7391,8 +7394,8 @@
       <c r="D67" s="32"/>
       <c r="E67" s="33"/>
     </row>
-    <row r="68" ht="18" spans="1:5">
-      <c r="A68" s="45"/>
+    <row r="68" ht="14.25" spans="1:5">
+      <c r="A68" s="46"/>
       <c r="B68" s="30">
         <v>67</v>
       </c>
@@ -7402,8 +7405,8 @@
       <c r="D68" s="32"/>
       <c r="E68" s="33"/>
     </row>
-    <row r="69" ht="18" spans="1:5">
-      <c r="A69" s="45"/>
+    <row r="69" ht="14.25" spans="1:5">
+      <c r="A69" s="46"/>
       <c r="B69" s="30">
         <v>68</v>
       </c>
@@ -7413,8 +7416,8 @@
       <c r="D69" s="32"/>
       <c r="E69" s="33"/>
     </row>
-    <row r="70" ht="18" spans="1:5">
-      <c r="A70" s="45"/>
+    <row r="70" ht="14.25" spans="1:5">
+      <c r="A70" s="46"/>
       <c r="B70" s="30">
         <v>69</v>
       </c>
@@ -7426,8 +7429,8 @@
       </c>
       <c r="E70" s="33"/>
     </row>
-    <row r="71" ht="18" spans="1:5">
-      <c r="A71" s="45"/>
+    <row r="71" ht="14.25" spans="1:5">
+      <c r="A71" s="46"/>
       <c r="B71" s="30">
         <v>70</v>
       </c>
@@ -7437,8 +7440,8 @@
       <c r="D71" s="32"/>
       <c r="E71" s="33"/>
     </row>
-    <row r="72" ht="18" spans="1:5">
-      <c r="A72" s="45"/>
+    <row r="72" ht="14.25" spans="1:5">
+      <c r="A72" s="46"/>
       <c r="B72" s="30">
         <v>71</v>
       </c>
@@ -7448,31 +7451,31 @@
       <c r="D72" s="32"/>
       <c r="E72" s="33"/>
     </row>
-    <row r="73" ht="53" spans="1:5">
-      <c r="A73" s="46"/>
+    <row r="73" ht="28.5" spans="1:5">
+      <c r="A73" s="47"/>
       <c r="B73" s="30">
         <v>72</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="36" t="s">
         <v>88</v>
       </c>
       <c r="D73" s="32"/>
       <c r="E73" s="33"/>
     </row>
-    <row r="74" ht="18" spans="1:5">
+    <row r="74" ht="14.25" spans="1:5">
       <c r="A74" s="29" t="s">
         <v>89</v>
       </c>
       <c r="B74" s="30">
         <v>73</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="36" t="s">
         <v>90</v>
       </c>
       <c r="D74" s="32"/>
       <c r="E74" s="33"/>
     </row>
-    <row r="75" ht="36" spans="1:5">
+    <row r="75" ht="28.5" spans="1:5">
       <c r="A75" s="29"/>
       <c r="B75" s="30">
         <v>74</v>
@@ -7483,7 +7486,7 @@
       <c r="D75" s="32"/>
       <c r="E75" s="33"/>
     </row>
-    <row r="76" ht="36" spans="1:5">
+    <row r="76" ht="28.5" spans="1:5">
       <c r="A76" s="29"/>
       <c r="B76" s="30">
         <v>75</v>
@@ -7494,7 +7497,7 @@
       <c r="D76" s="32"/>
       <c r="E76" s="33"/>
     </row>
-    <row r="77" ht="36" spans="1:5">
+    <row r="77" ht="14.25" spans="1:5">
       <c r="A77" s="29"/>
       <c r="B77" s="30">
         <v>76</v>
@@ -7505,7 +7508,7 @@
       <c r="D77" s="32"/>
       <c r="E77" s="33"/>
     </row>
-    <row r="78" ht="18" spans="1:5">
+    <row r="78" ht="14.25" spans="1:5">
       <c r="A78" s="29"/>
       <c r="B78" s="30">
         <v>77</v>
@@ -7516,7 +7519,7 @@
       <c r="D78" s="32"/>
       <c r="E78" s="33"/>
     </row>
-    <row r="79" ht="36" spans="1:5">
+    <row r="79" ht="14.25" spans="1:5">
       <c r="A79" s="29"/>
       <c r="B79" s="30">
         <v>78</v>
@@ -7527,7 +7530,7 @@
       <c r="D79" s="32"/>
       <c r="E79" s="33"/>
     </row>
-    <row r="80" ht="18" spans="1:5">
+    <row r="80" ht="14.25" spans="1:5">
       <c r="A80" s="29"/>
       <c r="B80" s="30">
         <v>79</v>
@@ -7538,7 +7541,7 @@
       <c r="D80" s="32"/>
       <c r="E80" s="33"/>
     </row>
-    <row r="81" ht="18" spans="1:5">
+    <row r="81" ht="14.25" spans="1:5">
       <c r="A81" s="29"/>
       <c r="B81" s="30">
         <v>80</v>
@@ -7551,7 +7554,7 @@
       </c>
       <c r="E81" s="33"/>
     </row>
-    <row r="82" ht="18" spans="1:5">
+    <row r="82" ht="14.25" spans="1:5">
       <c r="A82" s="29"/>
       <c r="B82" s="30">
         <v>81</v>
@@ -7562,7 +7565,7 @@
       <c r="D82" s="32"/>
       <c r="E82" s="33"/>
     </row>
-    <row r="83" ht="18" spans="1:5">
+    <row r="83" ht="14.25" spans="1:5">
       <c r="A83" s="29"/>
       <c r="B83" s="30">
         <v>82</v>
@@ -7573,7 +7576,7 @@
       <c r="D83" s="32"/>
       <c r="E83" s="33"/>
     </row>
-    <row r="84" ht="18" spans="1:5">
+    <row r="84" ht="14.25" spans="1:5">
       <c r="A84" s="29"/>
       <c r="B84" s="30">
         <v>83</v>
@@ -7584,7 +7587,7 @@
       <c r="D84" s="32"/>
       <c r="E84" s="33"/>
     </row>
-    <row r="85" ht="18" spans="1:5">
+    <row r="85" ht="14.25" spans="1:5">
       <c r="A85" s="29"/>
       <c r="B85" s="30">
         <v>84</v>
@@ -7595,7 +7598,7 @@
       <c r="D85" s="32"/>
       <c r="E85" s="33"/>
     </row>
-    <row r="86" ht="18" spans="1:5">
+    <row r="86" ht="14.25" spans="1:5">
       <c r="A86" s="29"/>
       <c r="B86" s="30">
         <v>85</v>
@@ -7606,51 +7609,51 @@
       <c r="D86" s="32"/>
       <c r="E86" s="33"/>
     </row>
-    <row r="87" ht="18" spans="1:5">
+    <row r="87" ht="14.25" spans="1:5">
       <c r="A87" s="29"/>
       <c r="B87" s="30">
         <v>86</v>
       </c>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="36" t="s">
         <v>103</v>
       </c>
       <c r="D87" s="32"/>
       <c r="E87" s="33"/>
     </row>
-    <row r="88" ht="18" spans="1:5">
+    <row r="88" ht="14.25" spans="1:5">
       <c r="A88" s="29"/>
       <c r="B88" s="30">
         <v>87</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="36" t="s">
         <v>104</v>
       </c>
       <c r="D88" s="32"/>
       <c r="E88" s="33"/>
     </row>
-    <row r="89" ht="18" spans="1:5">
+    <row r="89" ht="14.25" spans="1:5">
       <c r="A89" s="29"/>
       <c r="B89" s="30">
         <v>88</v>
       </c>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="36" t="s">
         <v>105</v>
       </c>
       <c r="D89" s="32"/>
       <c r="E89" s="33"/>
     </row>
-    <row r="90" ht="18" spans="1:5">
+    <row r="90" ht="14.25" spans="1:5">
       <c r="A90" s="29"/>
       <c r="B90" s="30">
         <v>89</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="36" t="s">
         <v>106</v>
       </c>
       <c r="D90" s="32"/>
       <c r="E90" s="33"/>
     </row>
-    <row r="91" ht="18" spans="1:5">
+    <row r="91" ht="14.25" spans="1:5">
       <c r="A91" s="29" t="s">
         <v>107</v>
       </c>
@@ -7663,7 +7666,7 @@
       <c r="D91" s="32"/>
       <c r="E91" s="33"/>
     </row>
-    <row r="92" ht="18" spans="1:5">
+    <row r="92" ht="14.25" spans="1:5">
       <c r="A92" s="29"/>
       <c r="B92" s="30">
         <v>91</v>
@@ -7674,7 +7677,7 @@
       <c r="D92" s="32"/>
       <c r="E92" s="33"/>
     </row>
-    <row r="93" ht="18" spans="1:5">
+    <row r="93" ht="14.25" spans="1:5">
       <c r="A93" s="29"/>
       <c r="B93" s="30">
         <v>92</v>
@@ -7687,7 +7690,7 @@
       </c>
       <c r="E93" s="33"/>
     </row>
-    <row r="94" ht="36" spans="1:5">
+    <row r="94" ht="28.5" spans="1:5">
       <c r="A94" s="29"/>
       <c r="B94" s="30">
         <v>93</v>
@@ -7698,23 +7701,23 @@
       <c r="D94" s="32"/>
       <c r="E94" s="33"/>
     </row>
-    <row r="95" ht="36" spans="1:5">
+    <row r="95" ht="28.5" spans="1:5">
       <c r="A95" s="29"/>
       <c r="B95" s="30">
         <v>94</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="C95" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D95" s="32"/>
       <c r="E95" s="33"/>
     </row>
-    <row r="96" ht="18" spans="1:5">
+    <row r="96" ht="14.25" spans="1:5">
       <c r="A96" s="29"/>
       <c r="B96" s="30">
         <v>95</v>
       </c>
-      <c r="C96" s="35" t="s">
+      <c r="C96" s="36" t="s">
         <v>113</v>
       </c>
       <c r="D96" s="32" t="s">
@@ -7722,51 +7725,51 @@
       </c>
       <c r="E96" s="33"/>
     </row>
-    <row r="97" ht="18" spans="1:5">
+    <row r="97" ht="14.25" spans="1:5">
       <c r="A97" s="29"/>
       <c r="B97" s="30">
         <v>96</v>
       </c>
-      <c r="C97" s="35" t="s">
+      <c r="C97" s="36" t="s">
         <v>114</v>
       </c>
       <c r="D97" s="32"/>
       <c r="E97" s="33"/>
     </row>
-    <row r="98" ht="18" spans="1:5">
+    <row r="98" ht="14.25" spans="1:5">
       <c r="A98" s="29"/>
       <c r="B98" s="30">
         <v>97</v>
       </c>
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="36" t="s">
         <v>115</v>
       </c>
       <c r="D98" s="32"/>
       <c r="E98" s="33"/>
     </row>
-    <row r="99" ht="18" spans="1:5">
+    <row r="99" ht="14.25" spans="1:5">
       <c r="A99" s="29"/>
       <c r="B99" s="30">
         <v>98</v>
       </c>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="36" t="s">
         <v>116</v>
       </c>
       <c r="D99" s="32"/>
       <c r="E99" s="33"/>
     </row>
-    <row r="100" ht="18" spans="1:5">
+    <row r="100" ht="14.25" spans="1:5">
       <c r="A100" s="29"/>
       <c r="B100" s="30">
         <v>99</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="36" t="s">
         <v>117</v>
       </c>
       <c r="D100" s="32"/>
       <c r="E100" s="33"/>
     </row>
-    <row r="101" ht="18" spans="1:5">
+    <row r="101" ht="14.25" spans="1:5">
       <c r="A101" s="29" t="s">
         <v>118</v>
       </c>
@@ -7779,19 +7782,19 @@
       <c r="D101" s="32"/>
       <c r="E101" s="33"/>
     </row>
-    <row r="102" ht="18" spans="1:5">
+    <row r="102" ht="14.25" spans="1:5">
       <c r="A102" s="29"/>
       <c r="B102" s="30">
         <v>101</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="36" t="s">
         <v>120</v>
       </c>
       <c r="D102" s="32"/>
       <c r="E102" s="33"/>
     </row>
-    <row r="103" ht="18" spans="1:5">
-      <c r="A103" s="47" t="s">
+    <row r="103" ht="14.25" spans="1:5">
+      <c r="A103" s="48" t="s">
         <v>121</v>
       </c>
       <c r="B103" s="30">
@@ -7803,8 +7806,8 @@
       <c r="D103" s="32"/>
       <c r="E103" s="33"/>
     </row>
-    <row r="104" ht="18" spans="1:5">
-      <c r="A104" s="47"/>
+    <row r="104" ht="14.25" spans="1:5">
+      <c r="A104" s="48"/>
       <c r="B104" s="30">
         <v>103</v>
       </c>
@@ -7814,62 +7817,62 @@
       <c r="D104" s="32"/>
       <c r="E104" s="33"/>
     </row>
-    <row r="105" ht="18" spans="1:5">
-      <c r="A105" s="47"/>
+    <row r="105" ht="14.25" spans="1:5">
+      <c r="A105" s="48"/>
       <c r="B105" s="30">
         <v>104</v>
       </c>
-      <c r="C105" s="34" t="s">
+      <c r="C105" s="35" t="s">
         <v>124</v>
       </c>
       <c r="D105" s="32"/>
       <c r="E105" s="33"/>
     </row>
-    <row r="106" ht="18" spans="1:5">
-      <c r="A106" s="47"/>
+    <row r="106" ht="14.25" spans="1:5">
+      <c r="A106" s="48"/>
       <c r="B106" s="30">
         <v>105</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="C106" s="35" t="s">
         <v>125</v>
       </c>
       <c r="D106" s="32"/>
       <c r="E106" s="33"/>
     </row>
-    <row r="107" ht="18" spans="1:5">
-      <c r="A107" s="47"/>
+    <row r="107" ht="14.25" spans="1:5">
+      <c r="A107" s="48"/>
       <c r="B107" s="30">
         <v>106</v>
       </c>
-      <c r="C107" s="34" t="s">
+      <c r="C107" s="35" t="s">
         <v>126</v>
       </c>
       <c r="D107" s="32"/>
       <c r="E107" s="33"/>
     </row>
-    <row r="108" ht="18" spans="1:5">
-      <c r="A108" s="47"/>
+    <row r="108" ht="14.25" spans="1:5">
+      <c r="A108" s="48"/>
       <c r="B108" s="30">
         <v>107</v>
       </c>
-      <c r="C108" s="34" t="s">
+      <c r="C108" s="35" t="s">
         <v>127</v>
       </c>
       <c r="D108" s="32"/>
       <c r="E108" s="33"/>
     </row>
-    <row r="109" ht="18" spans="1:5">
-      <c r="A109" s="47"/>
+    <row r="109" ht="14.25" spans="1:5">
+      <c r="A109" s="48"/>
       <c r="B109" s="30">
         <v>108</v>
       </c>
-      <c r="C109" s="34" t="s">
+      <c r="C109" s="35" t="s">
         <v>128</v>
       </c>
       <c r="D109" s="32"/>
       <c r="E109" s="33"/>
     </row>
-    <row r="110" ht="18" spans="1:5">
+    <row r="110" ht="14.25" spans="1:5">
       <c r="A110" s="29" t="s">
         <v>129</v>
       </c>
@@ -7882,7 +7885,7 @@
       <c r="D110" s="32"/>
       <c r="E110" s="33"/>
     </row>
-    <row r="111" ht="18" spans="1:5">
+    <row r="111" ht="14.25" spans="1:5">
       <c r="A111" s="29"/>
       <c r="B111" s="30">
         <v>110</v>
@@ -7893,34 +7896,34 @@
       <c r="D111" s="32"/>
       <c r="E111" s="33"/>
     </row>
-    <row r="112" ht="36" spans="1:5">
+    <row r="112" ht="28.5" spans="1:5">
       <c r="A112" s="29"/>
       <c r="B112" s="30">
         <v>111</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="36" t="s">
         <v>132</v>
       </c>
       <c r="D112" s="32"/>
       <c r="E112" s="33"/>
     </row>
-    <row r="113" ht="36" spans="1:5">
+    <row r="113" ht="28.5" spans="1:5">
       <c r="A113" s="29"/>
       <c r="B113" s="30">
         <v>112</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="36" t="s">
         <v>133</v>
       </c>
       <c r="D113" s="32"/>
       <c r="E113" s="33"/>
     </row>
-    <row r="114" ht="18" spans="1:5">
+    <row r="114" ht="14.25" spans="1:5">
       <c r="A114" s="29"/>
       <c r="B114" s="30">
         <v>113</v>
       </c>
-      <c r="C114" s="35" t="s">
+      <c r="C114" s="36" t="s">
         <v>134</v>
       </c>
       <c r="D114" s="32"/>
@@ -7950,7 +7953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E105"/>
   <sheetViews>
@@ -7958,12 +7961,12 @@
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="122.169642857143" customWidth="1"/>
+    <col min="3" max="3" width="122.166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.75" spans="2:5">
+    <row r="1" ht="15" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>135</v>
       </c>
@@ -9149,7 +9152,7 @@
         <v>132</v>
       </c>
       <c r="D91" s="13"/>
-      <c r="E91" s="21"/>
+      <c r="E91" s="20"/>
     </row>
     <row r="92" ht="40" customHeight="1" spans="1:5">
       <c r="A92" t="s">
@@ -9279,7 +9282,7 @@
         <v>330</v>
       </c>
       <c r="D101" s="13"/>
-      <c r="E101" s="21"/>
+      <c r="E101" s="20"/>
     </row>
     <row r="102" ht="40" customHeight="1" spans="1:5">
       <c r="A102" t="s">
@@ -9315,13 +9318,15 @@
         <v>335</v>
       </c>
       <c r="D104" s="13"/>
-      <c r="E104" s="21"/>
+      <c r="E104" s="20"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="20"/>
+      <c r="B105" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A105"/>
+  <autoFilter ref="A1:A105">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
